--- a/data/pca/factorExposure/factorExposure_2018-07-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-07-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03136028739598162</v>
+        <v>-0.02603766513422484</v>
       </c>
       <c r="C2">
-        <v>0.02534801873996513</v>
+        <v>-0.01727934718434098</v>
       </c>
       <c r="D2">
-        <v>0.02653339974857786</v>
+        <v>-0.01795128508846931</v>
       </c>
       <c r="E2">
-        <v>0.004385241382295142</v>
+        <v>-0.01554203076674781</v>
       </c>
       <c r="F2">
-        <v>-0.1246550939275233</v>
+        <v>0.004906086430375332</v>
       </c>
       <c r="G2">
-        <v>-0.04103121140063533</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.05331968582153086</v>
+      </c>
+      <c r="H2">
+        <v>0.05230956400424305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.110979836562695</v>
+        <v>-0.08376261387078884</v>
       </c>
       <c r="C3">
-        <v>-0.03877615174596646</v>
+        <v>0.01352185904781278</v>
       </c>
       <c r="D3">
-        <v>0.08171289990349676</v>
+        <v>-0.02050104128105728</v>
       </c>
       <c r="E3">
-        <v>0.01727676966237508</v>
+        <v>-0.01410386994453334</v>
       </c>
       <c r="F3">
-        <v>-0.4022075564655198</v>
+        <v>-0.04542144839887736</v>
       </c>
       <c r="G3">
-        <v>-0.1645600226086722</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.1825340697166607</v>
+      </c>
+      <c r="H3">
+        <v>0.156880594647347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05479254252122912</v>
+        <v>-0.04841924422816258</v>
       </c>
       <c r="C4">
-        <v>0.02656879358863745</v>
+        <v>-0.003155461674439964</v>
       </c>
       <c r="D4">
-        <v>-0.01735433998209618</v>
+        <v>-0.04128612970832605</v>
       </c>
       <c r="E4">
-        <v>0.05961431704238144</v>
+        <v>0.02324833039794955</v>
       </c>
       <c r="F4">
-        <v>-0.08025185117382322</v>
+        <v>0.04750564609452102</v>
       </c>
       <c r="G4">
-        <v>-0.04162122593721879</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04285326004174269</v>
+      </c>
+      <c r="H4">
+        <v>0.05843666219334025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01362935075464092</v>
+        <v>-0.02627820438939624</v>
       </c>
       <c r="C6">
-        <v>0.00784566913554581</v>
+        <v>-0.003541849066434138</v>
       </c>
       <c r="D6">
-        <v>0.01770808285758938</v>
+        <v>-0.05040022429540247</v>
       </c>
       <c r="E6">
-        <v>0.02209741625711708</v>
+        <v>0.009331189900294126</v>
       </c>
       <c r="F6">
-        <v>-0.01342790206766939</v>
+        <v>0.02962417654056827</v>
       </c>
       <c r="G6">
-        <v>-0.002739158090896953</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01465666786601475</v>
+      </c>
+      <c r="H6">
+        <v>0.0605344037810859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02426954314787585</v>
+        <v>-0.0222319041615895</v>
       </c>
       <c r="C7">
-        <v>0.001186369691831286</v>
+        <v>-0.00270137778398008</v>
       </c>
       <c r="D7">
-        <v>0.01495989327308701</v>
+        <v>-0.02526910622010173</v>
       </c>
       <c r="E7">
-        <v>0.03430130815612365</v>
+        <v>0.04214488861424372</v>
       </c>
       <c r="F7">
-        <v>-0.05387801477560854</v>
+        <v>0.001696890871058708</v>
       </c>
       <c r="G7">
-        <v>-0.06004923325681591</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02406725473358125</v>
+      </c>
+      <c r="H7">
+        <v>0.03735726527981828</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.02164747862626002</v>
+        <v>-0.007214758721911142</v>
       </c>
       <c r="C8">
-        <v>0.01614423281766902</v>
+        <v>0.002129475738136607</v>
       </c>
       <c r="D8">
-        <v>0.00831039765659982</v>
+        <v>-0.01140207862637358</v>
       </c>
       <c r="E8">
-        <v>0.05341641232256756</v>
+        <v>0.006873221913348954</v>
       </c>
       <c r="F8">
-        <v>-0.09496850846368474</v>
+        <v>0.01566652452974868</v>
       </c>
       <c r="G8">
-        <v>-0.05676135757076603</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.04710964420509582</v>
+      </c>
+      <c r="H8">
+        <v>0.04120784521494472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04284159148306362</v>
+        <v>-0.03945060187386709</v>
       </c>
       <c r="C9">
-        <v>0.02482051927265734</v>
+        <v>0.0007278726482131102</v>
       </c>
       <c r="D9">
-        <v>-0.004886998897565268</v>
+        <v>-0.03216500403214909</v>
       </c>
       <c r="E9">
-        <v>0.05561398350917807</v>
+        <v>0.01181324315767019</v>
       </c>
       <c r="F9">
-        <v>-0.08109193884116959</v>
+        <v>0.02464689180772229</v>
       </c>
       <c r="G9">
-        <v>-0.05528491436847382</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.05089474645815008</v>
+      </c>
+      <c r="H9">
+        <v>0.05316430322504352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02669093050207026</v>
+        <v>-0.09775942573909506</v>
       </c>
       <c r="C10">
-        <v>-0.04204602150894915</v>
+        <v>0.02769868103136025</v>
       </c>
       <c r="D10">
-        <v>-0.08125882356320865</v>
+        <v>0.1564025415636988</v>
       </c>
       <c r="E10">
-        <v>-0.1020045270774309</v>
+        <v>-0.0124723764890488</v>
       </c>
       <c r="F10">
-        <v>-0.05688199954732791</v>
+        <v>-0.04615531978029846</v>
       </c>
       <c r="G10">
-        <v>0.03625469427263782</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02123166847827032</v>
+      </c>
+      <c r="H10">
+        <v>0.004406514419075958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03750803743593772</v>
+        <v>-0.02230244409878761</v>
       </c>
       <c r="C11">
-        <v>0.01471433272692975</v>
+        <v>0.008816959038167283</v>
       </c>
       <c r="D11">
-        <v>0.01549632883659794</v>
+        <v>-0.03773325336803567</v>
       </c>
       <c r="E11">
-        <v>0.03461983272086881</v>
+        <v>0.0001965630990156809</v>
       </c>
       <c r="F11">
-        <v>-0.04329261663344217</v>
+        <v>0.009882127949724652</v>
       </c>
       <c r="G11">
-        <v>-0.02705696076750411</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02663798851243832</v>
+      </c>
+      <c r="H11">
+        <v>0.04451422486627744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0430320650037344</v>
+        <v>-0.03081005758927686</v>
       </c>
       <c r="C12">
-        <v>0.01413050129819259</v>
+        <v>0.007165581477386767</v>
       </c>
       <c r="D12">
-        <v>0.009691160683724526</v>
+        <v>-0.03883821945080777</v>
       </c>
       <c r="E12">
-        <v>0.04005614456658711</v>
+        <v>0.009476925514144289</v>
       </c>
       <c r="F12">
-        <v>-0.03013757638275228</v>
+        <v>0.01618321443473885</v>
       </c>
       <c r="G12">
-        <v>-0.01669072548538403</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01212616584954214</v>
+      </c>
+      <c r="H12">
+        <v>0.02350635698072707</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.02050080025742965</v>
+        <v>-0.02721188759513012</v>
       </c>
       <c r="C13">
-        <v>0.02126025420047807</v>
+        <v>-0.01392863116418217</v>
       </c>
       <c r="D13">
-        <v>0.01339345948309229</v>
+        <v>0.004813008683273196</v>
       </c>
       <c r="E13">
-        <v>0.003822528536997758</v>
+        <v>-0.01294518928625311</v>
       </c>
       <c r="F13">
-        <v>-0.08160907494848127</v>
+        <v>0.007869271442518181</v>
       </c>
       <c r="G13">
-        <v>-0.03697919174002547</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.05642236309789651</v>
+      </c>
+      <c r="H13">
+        <v>0.05687665914762469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01422771629218172</v>
+        <v>-0.01689957332174276</v>
       </c>
       <c r="C14">
-        <v>0.009893259013555608</v>
+        <v>-0.000757907142411735</v>
       </c>
       <c r="D14">
-        <v>-0.002557476650154587</v>
+        <v>-0.003038482468207689</v>
       </c>
       <c r="E14">
-        <v>0.04558439922456965</v>
+        <v>0.0135292519136376</v>
       </c>
       <c r="F14">
-        <v>-0.05296353561297506</v>
+        <v>0.01156557594634412</v>
       </c>
       <c r="G14">
-        <v>-0.06737924665332347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04506325662376495</v>
+      </c>
+      <c r="H14">
+        <v>0.002266721775306948</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02832190078145728</v>
+        <v>-0.02314966316565453</v>
       </c>
       <c r="C16">
-        <v>0.01854683751184442</v>
+        <v>0.009261994352540994</v>
       </c>
       <c r="D16">
-        <v>0.01645866446400555</v>
+        <v>-0.0341686513810374</v>
       </c>
       <c r="E16">
-        <v>0.02790205258191648</v>
+        <v>0.003609144756829797</v>
       </c>
       <c r="F16">
-        <v>-0.04979154517515886</v>
+        <v>0.01610597850360365</v>
       </c>
       <c r="G16">
-        <v>-0.02966881629393998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02467492039437101</v>
+      </c>
+      <c r="H16">
+        <v>0.03731406924978818</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.0474131456248345</v>
+        <v>-0.03567633031936631</v>
       </c>
       <c r="C19">
-        <v>0.0155781750996432</v>
+        <v>0.0003410219265449718</v>
       </c>
       <c r="D19">
-        <v>0.02003687458759911</v>
+        <v>-0.01830868973310654</v>
       </c>
       <c r="E19">
-        <v>0.04609113948040203</v>
+        <v>0.003722178669455272</v>
       </c>
       <c r="F19">
-        <v>-0.09606038012907388</v>
+        <v>0.015534044580598</v>
       </c>
       <c r="G19">
-        <v>-0.04270343243054875</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.05860108958354832</v>
+      </c>
+      <c r="H19">
+        <v>0.07072314589282505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001923349932349809</v>
+        <v>-0.009832322511948207</v>
       </c>
       <c r="C20">
-        <v>0.0140881435612584</v>
+        <v>-0.006456545843539887</v>
       </c>
       <c r="D20">
-        <v>-0.0006376703999001826</v>
+        <v>-0.007288387515643348</v>
       </c>
       <c r="E20">
-        <v>0.04063453200162501</v>
+        <v>0.003728497676794403</v>
       </c>
       <c r="F20">
-        <v>-0.0699078949021994</v>
+        <v>0.0102228545238545</v>
       </c>
       <c r="G20">
-        <v>-0.07595091691868855</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05002054438274167</v>
+      </c>
+      <c r="H20">
+        <v>0.01138466166547662</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0008835315966349106</v>
+        <v>-0.01844599005856715</v>
       </c>
       <c r="C21">
-        <v>-0.006909448123139418</v>
+        <v>-0.007050761046586656</v>
       </c>
       <c r="D21">
-        <v>0.008197070835028533</v>
+        <v>-0.007952759993233536</v>
       </c>
       <c r="E21">
-        <v>0.03467282868545868</v>
+        <v>0.01660767124076669</v>
       </c>
       <c r="F21">
-        <v>-0.05805248919318487</v>
+        <v>0.003677631899250409</v>
       </c>
       <c r="G21">
-        <v>-0.02920742857497122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05179319200755107</v>
+      </c>
+      <c r="H21">
+        <v>0.03412273131715324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03290214047531114</v>
+        <v>-0.02089016300474041</v>
       </c>
       <c r="C24">
-        <v>0.01943692401151256</v>
+        <v>0.003531370728954148</v>
       </c>
       <c r="D24">
-        <v>0.00891939874747672</v>
+        <v>-0.03364902230892205</v>
       </c>
       <c r="E24">
-        <v>0.01146791277709456</v>
+        <v>0.00051990521327458</v>
       </c>
       <c r="F24">
-        <v>-0.04328245899267436</v>
+        <v>0.009948486599173242</v>
       </c>
       <c r="G24">
-        <v>-0.02319172950396824</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02147904654787647</v>
+      </c>
+      <c r="H24">
+        <v>0.0404480570239851</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03105874125264447</v>
+        <v>-0.03011946398353685</v>
       </c>
       <c r="C25">
-        <v>0.01074481251013709</v>
+        <v>0.001323260303635334</v>
       </c>
       <c r="D25">
-        <v>0.01615731063841941</v>
+        <v>-0.03267974578019204</v>
       </c>
       <c r="E25">
-        <v>0.03919695732281388</v>
+        <v>0.005006621015594074</v>
       </c>
       <c r="F25">
-        <v>-0.04229238685889988</v>
+        <v>0.01543165322744597</v>
       </c>
       <c r="G25">
-        <v>-0.009287779258716886</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02568829974284398</v>
+      </c>
+      <c r="H25">
+        <v>0.04405060306847328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02055699531161261</v>
+        <v>-0.02126692356225756</v>
       </c>
       <c r="C26">
-        <v>0.003247561779700429</v>
+        <v>-0.01662814875173335</v>
       </c>
       <c r="D26">
-        <v>0.03083995800550008</v>
+        <v>-0.002563387283479577</v>
       </c>
       <c r="E26">
-        <v>0.02384891161982969</v>
+        <v>-0.001607090339192975</v>
       </c>
       <c r="F26">
-        <v>-0.06755322860603212</v>
+        <v>0.0003560094599828389</v>
       </c>
       <c r="G26">
-        <v>-0.03234740493979549</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03314167493502479</v>
+      </c>
+      <c r="H26">
+        <v>0.01831836037924982</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.06746993494231421</v>
+        <v>-0.02695582484610871</v>
       </c>
       <c r="C27">
-        <v>0.03092590956596501</v>
+        <v>0.01053070551311691</v>
       </c>
       <c r="D27">
-        <v>-0.02963093093324885</v>
+        <v>-0.01433454417439591</v>
       </c>
       <c r="E27">
-        <v>0.04103220444230556</v>
+        <v>0.008322558201764814</v>
       </c>
       <c r="F27">
-        <v>-0.05035082592622802</v>
+        <v>0.01790868832992993</v>
       </c>
       <c r="G27">
-        <v>-0.03689309193406265</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.01920332350648585</v>
+      </c>
+      <c r="H27">
+        <v>0.005401610305709519</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04403558403319326</v>
+        <v>-0.1445973415437771</v>
       </c>
       <c r="C28">
-        <v>-0.04724046660972585</v>
+        <v>0.02738930832074263</v>
       </c>
       <c r="D28">
-        <v>-0.1155088114750789</v>
+        <v>0.2263778520338089</v>
       </c>
       <c r="E28">
-        <v>-0.1441484055671308</v>
+        <v>-0.01120450869604521</v>
       </c>
       <c r="F28">
-        <v>-0.05755844035228024</v>
+        <v>-0.05353043663853785</v>
       </c>
       <c r="G28">
-        <v>0.02690813485743926</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.009463076774078902</v>
+      </c>
+      <c r="H28">
+        <v>-0.0135120649825004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02208220268780956</v>
+        <v>-0.02184463924829072</v>
       </c>
       <c r="C29">
-        <v>0.01133754855020988</v>
+        <v>0.001434288469383366</v>
       </c>
       <c r="D29">
-        <v>-0.005578720390838369</v>
+        <v>-0.004412623955467892</v>
       </c>
       <c r="E29">
-        <v>0.05843035573875274</v>
+        <v>0.01369221807351129</v>
       </c>
       <c r="F29">
-        <v>-0.04210001706075581</v>
+        <v>0.01463839197758448</v>
       </c>
       <c r="G29">
-        <v>-0.05701031974229175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.04249994986248228</v>
+      </c>
+      <c r="H29">
+        <v>-0.001399164827007946</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.09653567391333186</v>
+        <v>-0.05407091051269687</v>
       </c>
       <c r="C30">
-        <v>0.06073543740215645</v>
+        <v>-0.003314251744697002</v>
       </c>
       <c r="D30">
-        <v>0.01432887538399772</v>
+        <v>-0.06913077175692971</v>
       </c>
       <c r="E30">
-        <v>0.07505982587791349</v>
+        <v>-0.02775604204491313</v>
       </c>
       <c r="F30">
-        <v>-0.0827013302273598</v>
+        <v>0.05238207965082357</v>
       </c>
       <c r="G30">
-        <v>-0.05539076950259259</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.05792906524759734</v>
+      </c>
+      <c r="H30">
+        <v>0.06347006954391225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06331366236716661</v>
+        <v>-0.05582934655430565</v>
       </c>
       <c r="C31">
-        <v>0.02406563563213326</v>
+        <v>0.01536467339685482</v>
       </c>
       <c r="D31">
-        <v>0.02868873801699047</v>
+        <v>-0.02490701205882912</v>
       </c>
       <c r="E31">
-        <v>0.009373113675331958</v>
+        <v>-0.00438405653683431</v>
       </c>
       <c r="F31">
-        <v>-0.04335835031516842</v>
+        <v>0.01293479969115356</v>
       </c>
       <c r="G31">
-        <v>-0.05857588544986683</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01860887264492741</v>
+      </c>
+      <c r="H31">
+        <v>0.0104569002420172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0229632182966313</v>
+        <v>-0.01089760718432829</v>
       </c>
       <c r="C32">
-        <v>0.01915205799880515</v>
+        <v>0.01348595445384915</v>
       </c>
       <c r="D32">
-        <v>0.008818356602687415</v>
+        <v>-0.001665163320400192</v>
       </c>
       <c r="E32">
-        <v>0.08689717356120746</v>
+        <v>0.03181589191530153</v>
       </c>
       <c r="F32">
-        <v>-0.05811772962111544</v>
+        <v>0.0321319199721932</v>
       </c>
       <c r="G32">
-        <v>-0.04742896892697359</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.0346904129101195</v>
+      </c>
+      <c r="H32">
+        <v>0.05926135932143742</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05184359249378778</v>
+        <v>-0.04025131608826121</v>
       </c>
       <c r="C33">
-        <v>0.01017502975032455</v>
+        <v>0.001761357422984293</v>
       </c>
       <c r="D33">
-        <v>0.04746486671185809</v>
+        <v>-0.03154095509682432</v>
       </c>
       <c r="E33">
-        <v>0.0457349970781935</v>
+        <v>-0.02354942812060677</v>
       </c>
       <c r="F33">
-        <v>-0.08985845711840466</v>
+        <v>0.001761122217377334</v>
       </c>
       <c r="G33">
-        <v>-0.05740326947610941</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.05028743711977824</v>
+      </c>
+      <c r="H33">
+        <v>0.04246529295764138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03511244970997254</v>
+        <v>-0.02782962092829821</v>
       </c>
       <c r="C34">
-        <v>0.02098968238506113</v>
+        <v>0.01777222309160414</v>
       </c>
       <c r="D34">
-        <v>0.01232421894499667</v>
+        <v>-0.03412799502676831</v>
       </c>
       <c r="E34">
-        <v>0.03628389898373066</v>
+        <v>0.009639893098625211</v>
       </c>
       <c r="F34">
-        <v>-0.05625962821958824</v>
+        <v>0.01704443275980074</v>
       </c>
       <c r="G34">
-        <v>-0.01466287783494324</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02355227329332606</v>
+      </c>
+      <c r="H34">
+        <v>0.03733564084045835</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01681024121989795</v>
+        <v>-0.02163335217078526</v>
       </c>
       <c r="C36">
-        <v>0.005579786245568924</v>
+        <v>-0.003613022756133725</v>
       </c>
       <c r="D36">
-        <v>-0.001583817172940998</v>
+        <v>0.0004980043479714452</v>
       </c>
       <c r="E36">
-        <v>0.03390330930635523</v>
+        <v>0.006477471023735202</v>
       </c>
       <c r="F36">
-        <v>-0.03203658768810385</v>
+        <v>0.003907381147646009</v>
       </c>
       <c r="G36">
-        <v>-0.03789546044317561</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02063061111676438</v>
+      </c>
+      <c r="H36">
+        <v>0.007540423402236622</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.00204611238423655</v>
+        <v>-0.02412159392322594</v>
       </c>
       <c r="C38">
-        <v>-0.01288132291107662</v>
+        <v>0.01662274180745335</v>
       </c>
       <c r="D38">
-        <v>0.01163617926378055</v>
+        <v>-0.003501702533672545</v>
       </c>
       <c r="E38">
-        <v>-0.01412806063915641</v>
+        <v>-0.001065606435085454</v>
       </c>
       <c r="F38">
-        <v>-0.04661856989472592</v>
+        <v>0.00581936634313757</v>
       </c>
       <c r="G38">
-        <v>0.003042061731611864</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01928057327469626</v>
+      </c>
+      <c r="H38">
+        <v>0.04102255018690572</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04360144067207138</v>
+        <v>-0.02024229881957142</v>
       </c>
       <c r="C39">
-        <v>0.03698087705594045</v>
+        <v>0.001819012021699072</v>
       </c>
       <c r="D39">
-        <v>0.0249142137380471</v>
+        <v>-0.07463877372405839</v>
       </c>
       <c r="E39">
-        <v>0.03956738926737408</v>
+        <v>-0.0007151929486395484</v>
       </c>
       <c r="F39">
-        <v>-0.06558470847568272</v>
+        <v>0.02129670351603081</v>
       </c>
       <c r="G39">
-        <v>-0.02568092946655002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04520819336926916</v>
+      </c>
+      <c r="H39">
+        <v>0.07097551602695548</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.04011505437078145</v>
+        <v>-0.03441131339252174</v>
       </c>
       <c r="C40">
-        <v>0.06235594981249653</v>
+        <v>0.002036971217798025</v>
       </c>
       <c r="D40">
-        <v>0.03555009179897543</v>
+        <v>-0.01687089814329506</v>
       </c>
       <c r="E40">
-        <v>-0.005429893427410063</v>
+        <v>-0.02394850945450634</v>
       </c>
       <c r="F40">
-        <v>-0.0821152905745743</v>
+        <v>0.02812544283804682</v>
       </c>
       <c r="G40">
-        <v>-0.05442806469384951</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02680244142843947</v>
+      </c>
+      <c r="H40">
+        <v>0.06456239211908965</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0001444891453326152</v>
+        <v>-0.01147532100687009</v>
       </c>
       <c r="C41">
-        <v>-0.001876196425521265</v>
+        <v>-0.0004010966927731367</v>
       </c>
       <c r="D41">
-        <v>0.006917570341338298</v>
+        <v>0.01267580733300201</v>
       </c>
       <c r="E41">
-        <v>0.01063884451766352</v>
+        <v>-0.002104659280555612</v>
       </c>
       <c r="F41">
-        <v>-0.002963328164182906</v>
+        <v>-0.00180949528453143</v>
       </c>
       <c r="G41">
-        <v>-0.04524658453027273</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.003862992133558588</v>
+      </c>
+      <c r="H41">
+        <v>-0.005319310776618104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3532731980583088</v>
+        <v>-0.2023573762532395</v>
       </c>
       <c r="C42">
-        <v>-0.6811069224353719</v>
+        <v>-0.07244268687780749</v>
       </c>
       <c r="D42">
-        <v>0.5331680072367057</v>
+        <v>-0.363962711301746</v>
       </c>
       <c r="E42">
-        <v>-0.1763110719453866</v>
+        <v>-0.2344386408466993</v>
       </c>
       <c r="F42">
-        <v>0.2338933424280271</v>
+        <v>-0.8396393360444854</v>
       </c>
       <c r="G42">
-        <v>-0.05914077471229881</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.2015854954591818</v>
+      </c>
+      <c r="H42">
+        <v>-0.04534748315731227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.00727229436805816</v>
+        <v>-0.01118167854158609</v>
       </c>
       <c r="C43">
-        <v>-0.007565587137870048</v>
+        <v>-0.001871409065664358</v>
       </c>
       <c r="D43">
-        <v>0.01614577779292482</v>
+        <v>0.01397452571904295</v>
       </c>
       <c r="E43">
-        <v>0.01303742437047603</v>
+        <v>-0.006725765946606667</v>
       </c>
       <c r="F43">
-        <v>-0.01946254988818177</v>
+        <v>-0.009322471957324507</v>
       </c>
       <c r="G43">
-        <v>-0.04140613537756053</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.007124784261416519</v>
+      </c>
+      <c r="H43">
+        <v>0.001712888775985711</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01810550528318905</v>
+        <v>-0.014268021012408</v>
       </c>
       <c r="C44">
-        <v>-0.004320647072618317</v>
+        <v>0.00150921890409011</v>
       </c>
       <c r="D44">
-        <v>0.01997742022637786</v>
+        <v>-0.02343247715463269</v>
       </c>
       <c r="E44">
-        <v>0.03084260313703732</v>
+        <v>0.005203868150902949</v>
       </c>
       <c r="F44">
-        <v>-0.1099010463845601</v>
+        <v>-0.006223975797384472</v>
       </c>
       <c r="G44">
-        <v>-0.072986690743196</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.03996043654275479</v>
+      </c>
+      <c r="H44">
+        <v>0.05738887424758041</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02031039469030265</v>
+        <v>-0.01904574897889377</v>
       </c>
       <c r="C46">
-        <v>0.0111338427672703</v>
+        <v>-0.003485563273970349</v>
       </c>
       <c r="D46">
-        <v>0.02454733763945371</v>
+        <v>-0.01325542260605381</v>
       </c>
       <c r="E46">
-        <v>0.05448940160940723</v>
+        <v>0.001399128075182626</v>
       </c>
       <c r="F46">
-        <v>-0.05744466203928585</v>
+        <v>0.01429807620580127</v>
       </c>
       <c r="G46">
-        <v>-0.06104603620901319</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04997163021542553</v>
+      </c>
+      <c r="H46">
+        <v>0.0135230808877612</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09924985343941393</v>
+        <v>-0.0767619388148166</v>
       </c>
       <c r="C47">
-        <v>0.03039304863195467</v>
+        <v>0.03090812443537681</v>
       </c>
       <c r="D47">
-        <v>0.0100961212962303</v>
+        <v>-0.04236538891111552</v>
       </c>
       <c r="E47">
-        <v>0.02606201097278118</v>
+        <v>0.0008683435331892912</v>
       </c>
       <c r="F47">
-        <v>-0.01859667168823038</v>
+        <v>0.02353059793944416</v>
       </c>
       <c r="G47">
-        <v>-0.07706698543000723</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.006721147132478517</v>
+      </c>
+      <c r="H47">
+        <v>-0.02101838816977226</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01868973840911669</v>
+        <v>-0.0231022360529471</v>
       </c>
       <c r="C48">
-        <v>0.007038699276781231</v>
+        <v>0.007050822214264021</v>
       </c>
       <c r="D48">
-        <v>0.01376323002543492</v>
+        <v>-0.006171182594492125</v>
       </c>
       <c r="E48">
-        <v>0.03208926479047894</v>
+        <v>0.001486848376827229</v>
       </c>
       <c r="F48">
-        <v>-0.05083324637230583</v>
+        <v>0.008311284290760125</v>
       </c>
       <c r="G48">
-        <v>-0.02182355432628104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02733128645262777</v>
+      </c>
+      <c r="H48">
+        <v>0.01757085399217636</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.09212266750409781</v>
+        <v>-0.07467614123353629</v>
       </c>
       <c r="C50">
-        <v>0.02659499914611575</v>
+        <v>0.02795053585889336</v>
       </c>
       <c r="D50">
-        <v>0.02152379704886034</v>
+        <v>-0.04264674089811334</v>
       </c>
       <c r="E50">
-        <v>0.03825363796043043</v>
+        <v>0.01963433959275104</v>
       </c>
       <c r="F50">
-        <v>-0.05118822447925276</v>
+        <v>0.01780074933267482</v>
       </c>
       <c r="G50">
-        <v>-0.03583669775818061</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.0167574825122624</v>
+      </c>
+      <c r="H50">
+        <v>3.548227567915587e-05</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01800075307163193</v>
+        <v>-0.01876648424386771</v>
       </c>
       <c r="C51">
-        <v>-0.0101625654996431</v>
+        <v>-0.001378539778915031</v>
       </c>
       <c r="D51">
-        <v>0.01283128882146012</v>
+        <v>0.008148956128251238</v>
       </c>
       <c r="E51">
-        <v>0.003350205934385291</v>
+        <v>-0.0006806780390755566</v>
       </c>
       <c r="F51">
-        <v>-0.1176969947672618</v>
+        <v>-0.01399148114231462</v>
       </c>
       <c r="G51">
-        <v>-0.04337815200739362</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04891062213536147</v>
+      </c>
+      <c r="H51">
+        <v>0.0508534168595498</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.107195017247532</v>
+        <v>-0.09400852578618642</v>
       </c>
       <c r="C53">
-        <v>0.04821676486940164</v>
+        <v>0.0379697328576078</v>
       </c>
       <c r="D53">
-        <v>0.01570998349198166</v>
+        <v>-0.07801032156653015</v>
       </c>
       <c r="E53">
-        <v>0.04051060765536057</v>
+        <v>0.008966547287353542</v>
       </c>
       <c r="F53">
-        <v>0.05170149870364709</v>
+        <v>0.05091113466174077</v>
       </c>
       <c r="G53">
-        <v>-0.01474967980954752</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.03985730066124171</v>
+      </c>
+      <c r="H53">
+        <v>-0.04243032824504926</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01462002614362217</v>
+        <v>-0.02577496352717031</v>
       </c>
       <c r="C54">
-        <v>0.01046397264599213</v>
+        <v>0.01129946268791858</v>
       </c>
       <c r="D54">
-        <v>-0.00560126772546161</v>
+        <v>0.01387051601742689</v>
       </c>
       <c r="E54">
-        <v>0.03347302708162819</v>
+        <v>0.006869710215558994</v>
       </c>
       <c r="F54">
-        <v>-0.05893303610095053</v>
+        <v>0.004875102352849449</v>
       </c>
       <c r="G54">
-        <v>-0.06057683765060366</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.04063638384997779</v>
+      </c>
+      <c r="H54">
+        <v>-0.002585122744887447</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1026953921628581</v>
+        <v>-0.07752666102600318</v>
       </c>
       <c r="C55">
-        <v>0.02782537915521614</v>
+        <v>0.03260697165481761</v>
       </c>
       <c r="D55">
-        <v>-0.005149569923510534</v>
+        <v>-0.07489653815127004</v>
       </c>
       <c r="E55">
-        <v>0.06210452138230807</v>
+        <v>0.01570465702073972</v>
       </c>
       <c r="F55">
-        <v>0.04012969090661075</v>
+        <v>0.04043030828918655</v>
       </c>
       <c r="G55">
-        <v>-0.07491705331867936</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01635311107923394</v>
+      </c>
+      <c r="H55">
+        <v>-0.05149344895108612</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1474985077912732</v>
+        <v>-0.1283045102682888</v>
       </c>
       <c r="C56">
-        <v>0.09090581827760635</v>
+        <v>0.05780667055921476</v>
       </c>
       <c r="D56">
-        <v>-0.02003031922814379</v>
+        <v>-0.09799091845181911</v>
       </c>
       <c r="E56">
-        <v>0.0538755626809963</v>
+        <v>0.01339485656579689</v>
       </c>
       <c r="F56">
-        <v>0.1106270550694849</v>
+        <v>0.08266055994589869</v>
       </c>
       <c r="G56">
-        <v>0.03299500682912759</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.07281991933174403</v>
+      </c>
+      <c r="H56">
+        <v>-0.04884908970093994</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04919090030290295</v>
+        <v>-0.04152521944095571</v>
       </c>
       <c r="C57">
-        <v>9.454208885300764e-05</v>
+        <v>-0.009167103925785524</v>
       </c>
       <c r="D57">
-        <v>0.01307108265637661</v>
+        <v>-0.02560270300346115</v>
       </c>
       <c r="E57">
-        <v>-0.007074310737623845</v>
+        <v>-0.003904793735716098</v>
       </c>
       <c r="F57">
-        <v>-0.08617058771856446</v>
+        <v>0.01275566267468555</v>
       </c>
       <c r="G57">
-        <v>-0.0690575022651277</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.05702152229951136</v>
+      </c>
+      <c r="H57">
+        <v>0.04210301228198008</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2126959039198295</v>
+        <v>-0.1521292085677109</v>
       </c>
       <c r="C58">
-        <v>0.05822362490515483</v>
+        <v>0.04538667205727261</v>
       </c>
       <c r="D58">
-        <v>0.1337369323816439</v>
+        <v>-0.1465568062562242</v>
       </c>
       <c r="E58">
-        <v>0.1500740504858172</v>
+        <v>-0.1672186033895387</v>
       </c>
       <c r="F58">
-        <v>-0.3153211628027083</v>
+        <v>-0.04095364553923925</v>
       </c>
       <c r="G58">
-        <v>-0.1107389017111184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.8268635123150837</v>
+      </c>
+      <c r="H58">
+        <v>-0.3697011349267969</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.04773680640033334</v>
+        <v>-0.1518246313589021</v>
       </c>
       <c r="C59">
-        <v>-0.001802728971005642</v>
+        <v>0.03581241466001613</v>
       </c>
       <c r="D59">
-        <v>-0.09994988575366578</v>
+        <v>0.2276452126980172</v>
       </c>
       <c r="E59">
-        <v>-0.1342910418169291</v>
+        <v>-0.02948750014528452</v>
       </c>
       <c r="F59">
-        <v>-0.07245584347421127</v>
+        <v>-0.03071098058383813</v>
       </c>
       <c r="G59">
-        <v>0.03842921320804403</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.004952940492908923</v>
+      </c>
+      <c r="H59">
+        <v>0.01551973211749124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1692918803602708</v>
+        <v>-0.175970266645135</v>
       </c>
       <c r="C60">
-        <v>0.03916183935041032</v>
+        <v>0.03825226767045341</v>
       </c>
       <c r="D60">
-        <v>0.05901727068928907</v>
+        <v>-0.01617218880888529</v>
       </c>
       <c r="E60">
-        <v>-0.03594946409458318</v>
+        <v>-0.04584130300501019</v>
       </c>
       <c r="F60">
-        <v>-0.1703781233394722</v>
+        <v>0.03790586809059009</v>
       </c>
       <c r="G60">
-        <v>0.301646039936749</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.04090257523980947</v>
+      </c>
+      <c r="H60">
+        <v>0.3936774376707636</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02236184595399738</v>
+        <v>-0.02154956294858322</v>
       </c>
       <c r="C61">
-        <v>0.006011354594700129</v>
+        <v>0.006622164787120955</v>
       </c>
       <c r="D61">
-        <v>0.01297503491413773</v>
+        <v>-0.04056582770642071</v>
       </c>
       <c r="E61">
-        <v>0.02211996731882385</v>
+        <v>0.005678987943872504</v>
       </c>
       <c r="F61">
-        <v>-0.03429351904397313</v>
+        <v>0.01684415605034776</v>
       </c>
       <c r="G61">
-        <v>-0.02182182050796913</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02659414840981193</v>
+      </c>
+      <c r="H61">
+        <v>0.04979145645116771</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01662565909710988</v>
+        <v>-0.01300252462148373</v>
       </c>
       <c r="C63">
-        <v>0.01241477186355098</v>
+        <v>-0.001971209882809161</v>
       </c>
       <c r="D63">
-        <v>0.01587750920678657</v>
+        <v>-0.01475832795274972</v>
       </c>
       <c r="E63">
-        <v>0.04510823049895347</v>
+        <v>0.005267611373692108</v>
       </c>
       <c r="F63">
-        <v>-0.01464715170082382</v>
+        <v>0.01522883959600696</v>
       </c>
       <c r="G63">
-        <v>-0.03959997847009376</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01754541340563578</v>
+      </c>
+      <c r="H63">
+        <v>0.00214554513604316</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03602973050085365</v>
+        <v>-0.04078913760342605</v>
       </c>
       <c r="C64">
-        <v>0.001714021918445796</v>
+        <v>0.01023521740126698</v>
       </c>
       <c r="D64">
-        <v>-0.01235545848021938</v>
+        <v>-0.03793323715971018</v>
       </c>
       <c r="E64">
-        <v>0.05801103415145262</v>
+        <v>0.01203215217985279</v>
       </c>
       <c r="F64">
-        <v>-0.016110166419064</v>
+        <v>0.004925217964792891</v>
       </c>
       <c r="G64">
-        <v>-0.06186048704677193</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.007749133099660194</v>
+      </c>
+      <c r="H64">
+        <v>0.03731861324914259</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01491553623606999</v>
+        <v>-0.0286970229828526</v>
       </c>
       <c r="C65">
-        <v>0.009379031656528033</v>
+        <v>-0.004281629349878764</v>
       </c>
       <c r="D65">
-        <v>0.01896532341801225</v>
+        <v>-0.05966317621286919</v>
       </c>
       <c r="E65">
-        <v>0.02225596323277223</v>
+        <v>0.01169566184908314</v>
       </c>
       <c r="F65">
-        <v>-0.008041174478459083</v>
+        <v>0.03326939674162196</v>
       </c>
       <c r="G65">
-        <v>0.001474996588090398</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.003496294874600931</v>
+      </c>
+      <c r="H65">
+        <v>0.05916269311806343</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04659175113424907</v>
+        <v>-0.02710508975890239</v>
       </c>
       <c r="C66">
-        <v>0.03773762760821049</v>
+        <v>0.006813174946921236</v>
       </c>
       <c r="D66">
-        <v>0.02574248252059894</v>
+        <v>-0.08639575265535758</v>
       </c>
       <c r="E66">
-        <v>0.03579680246291932</v>
+        <v>-0.001610957412206241</v>
       </c>
       <c r="F66">
-        <v>-0.06047649745476179</v>
+        <v>0.03844171230786669</v>
       </c>
       <c r="G66">
-        <v>-0.01702943534518552</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03810399227465676</v>
+      </c>
+      <c r="H66">
+        <v>0.07377541430273134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01548634324548209</v>
+        <v>-0.04431455596873671</v>
       </c>
       <c r="C67">
-        <v>-0.008831826067442745</v>
+        <v>0.01988880134007552</v>
       </c>
       <c r="D67">
-        <v>0.007182457009411856</v>
+        <v>0.003116554161493493</v>
       </c>
       <c r="E67">
-        <v>-0.0367913731712558</v>
+        <v>-0.004305404056642233</v>
       </c>
       <c r="F67">
-        <v>-0.03505088219407892</v>
+        <v>0.01138400704616041</v>
       </c>
       <c r="G67">
-        <v>0.01218794547991601</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.002175926996666045</v>
+      </c>
+      <c r="H67">
+        <v>0.04136398547098787</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06398570372544442</v>
+        <v>-0.1530240375324613</v>
       </c>
       <c r="C68">
-        <v>-0.01684437532023129</v>
+        <v>0.01591479728123559</v>
       </c>
       <c r="D68">
-        <v>-0.1365125675488864</v>
+        <v>0.2230196672610346</v>
       </c>
       <c r="E68">
-        <v>-0.1382939752791537</v>
+        <v>-0.02323786097307529</v>
       </c>
       <c r="F68">
-        <v>-0.05611048858810362</v>
+        <v>-0.05001472004655429</v>
       </c>
       <c r="G68">
-        <v>0.08070615552021754</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01719108945442017</v>
+      </c>
+      <c r="H68">
+        <v>-0.0384352716085679</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07275876106543448</v>
+        <v>-0.05907850183122496</v>
       </c>
       <c r="C69">
-        <v>0.03376143100626221</v>
+        <v>0.02901896118823616</v>
       </c>
       <c r="D69">
-        <v>0.00807790050190171</v>
+        <v>-0.037822875159047</v>
       </c>
       <c r="E69">
-        <v>0.004849419628538649</v>
+        <v>-0.001336770300982032</v>
       </c>
       <c r="F69">
-        <v>-0.01634113109530486</v>
+        <v>0.0306947498787042</v>
       </c>
       <c r="G69">
-        <v>-0.08262088730051584</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01301157169807774</v>
+      </c>
+      <c r="H69">
+        <v>0.002043690720043437</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07305494028499156</v>
+        <v>-0.1448850275177416</v>
       </c>
       <c r="C71">
-        <v>-0.03478603839675486</v>
+        <v>0.02380306159579581</v>
       </c>
       <c r="D71">
-        <v>-0.1181066217965384</v>
+        <v>0.2014932722833806</v>
       </c>
       <c r="E71">
-        <v>-0.1946959979650514</v>
+        <v>-0.02935741255618392</v>
       </c>
       <c r="F71">
-        <v>-0.07891592224321815</v>
+        <v>-0.05993382705624099</v>
       </c>
       <c r="G71">
-        <v>0.04031190392809694</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01597874329367003</v>
+      </c>
+      <c r="H71">
+        <v>-0.03039965497181539</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1158821184587116</v>
+        <v>-0.08365467425798748</v>
       </c>
       <c r="C72">
-        <v>0.08703745507836289</v>
+        <v>0.04090136618599135</v>
       </c>
       <c r="D72">
-        <v>-0.003820030882735863</v>
+        <v>-0.07479206762352818</v>
       </c>
       <c r="E72">
-        <v>0.02774910413971603</v>
+        <v>-0.006270687231362517</v>
       </c>
       <c r="F72">
-        <v>-0.1062257644429311</v>
+        <v>0.0808985860200846</v>
       </c>
       <c r="G72">
-        <v>0.05990862733179712</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.05600540106211238</v>
+      </c>
+      <c r="H72">
+        <v>0.1645865622235706</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2500098426847761</v>
+        <v>-0.2399300522807724</v>
       </c>
       <c r="C73">
-        <v>0.04362378376735143</v>
+        <v>0.04909882629804949</v>
       </c>
       <c r="D73">
-        <v>0.05689784471651829</v>
+        <v>-0.05676334837130521</v>
       </c>
       <c r="E73">
-        <v>-0.118181864930359</v>
+        <v>-0.07704009063643814</v>
       </c>
       <c r="F73">
-        <v>-0.2969736947275477</v>
+        <v>0.03471745481785666</v>
       </c>
       <c r="G73">
-        <v>0.4022878753240431</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.05901584315108151</v>
+      </c>
+      <c r="H73">
+        <v>0.5124808491489862</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1417519988115197</v>
+        <v>-0.1207443037846372</v>
       </c>
       <c r="C74">
-        <v>0.04325501207734606</v>
+        <v>0.0541190937022421</v>
       </c>
       <c r="D74">
-        <v>-0.01590422311320927</v>
+        <v>-0.09792108524769325</v>
       </c>
       <c r="E74">
-        <v>0.03076487317081703</v>
+        <v>0.009591987735941426</v>
       </c>
       <c r="F74">
-        <v>0.07163486234958685</v>
+        <v>0.06191175270875073</v>
       </c>
       <c r="G74">
-        <v>0.02789014572051645</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.05546485996939536</v>
+      </c>
+      <c r="H74">
+        <v>-0.03345162413310566</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2343454478291514</v>
+        <v>-0.2312958677724735</v>
       </c>
       <c r="C75">
-        <v>0.1495567762461349</v>
+        <v>0.1052469995012422</v>
       </c>
       <c r="D75">
-        <v>-0.02427117276005938</v>
+        <v>-0.155938495795485</v>
       </c>
       <c r="E75">
-        <v>0.05565102757162227</v>
+        <v>-0.0008551023847873034</v>
       </c>
       <c r="F75">
-        <v>0.135092780487219</v>
+        <v>0.1488626753855023</v>
       </c>
       <c r="G75">
-        <v>0.003148661634299102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1245782667299665</v>
+      </c>
+      <c r="H75">
+        <v>-0.1153714487392572</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2847710523626336</v>
+        <v>-0.2045825833144229</v>
       </c>
       <c r="C76">
-        <v>0.1415478637448982</v>
+        <v>0.09836134360797384</v>
       </c>
       <c r="D76">
-        <v>-0.09619299943838365</v>
+        <v>-0.1505488295561308</v>
       </c>
       <c r="E76">
-        <v>0.07765878170738975</v>
+        <v>0.04962205005817269</v>
       </c>
       <c r="F76">
-        <v>0.1860562362092069</v>
+        <v>0.1446488703177521</v>
       </c>
       <c r="G76">
-        <v>-0.008704820716552805</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1217372470603952</v>
+      </c>
+      <c r="H76">
+        <v>-0.1254994519545643</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.139553025053213</v>
+        <v>-0.0726610450582639</v>
       </c>
       <c r="C77">
-        <v>-0.03239199127842383</v>
+        <v>0.01010217102495829</v>
       </c>
       <c r="D77">
-        <v>0.08112532279922999</v>
+        <v>-0.06058737483536922</v>
       </c>
       <c r="E77">
-        <v>0.07298989659708424</v>
+        <v>-0.01628962941499279</v>
       </c>
       <c r="F77">
-        <v>-0.1804471328929468</v>
+        <v>-0.03359009079219552</v>
       </c>
       <c r="G77">
-        <v>-0.1528940970563599</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.100440324566579</v>
+      </c>
+      <c r="H77">
+        <v>-0.002851292742263176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06171020683124124</v>
+        <v>-0.03979762097682452</v>
       </c>
       <c r="C78">
-        <v>0.02199690715511865</v>
+        <v>0.01082267947715663</v>
       </c>
       <c r="D78">
-        <v>0.03135563652861128</v>
+        <v>-0.04790894136162895</v>
       </c>
       <c r="E78">
-        <v>0.09684585438767122</v>
+        <v>0.008475757177790923</v>
       </c>
       <c r="F78">
-        <v>-0.05203362541716747</v>
+        <v>0.02063918565232925</v>
       </c>
       <c r="G78">
-        <v>-0.03907625455116561</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.05955054007291779</v>
+      </c>
+      <c r="H78">
+        <v>0.0659690677381735</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1241532353254021</v>
+        <v>-0.141687480433002</v>
       </c>
       <c r="C80">
-        <v>-0.568297262698219</v>
+        <v>0.03924458604723896</v>
       </c>
       <c r="D80">
-        <v>-0.586546348170554</v>
+        <v>-0.03224171506605816</v>
       </c>
       <c r="E80">
-        <v>0.5250042424800332</v>
+        <v>0.93634739025281</v>
       </c>
       <c r="F80">
-        <v>-0.03305163862213558</v>
+        <v>-0.2535455718278958</v>
       </c>
       <c r="G80">
-        <v>0.1007271886375548</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1192655059655364</v>
+      </c>
+      <c r="H80">
+        <v>0.008783962612955007</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1753354377050552</v>
+        <v>-0.1511119957967379</v>
       </c>
       <c r="C81">
-        <v>0.103057241735404</v>
+        <v>0.06790201472029166</v>
       </c>
       <c r="D81">
-        <v>-0.04457487177505563</v>
+        <v>-0.09785822164440604</v>
       </c>
       <c r="E81">
-        <v>0.0406017507647989</v>
+        <v>0.01844060492612747</v>
       </c>
       <c r="F81">
-        <v>0.1304921554259145</v>
+        <v>0.09077397430425327</v>
       </c>
       <c r="G81">
-        <v>0.01850831043302963</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.07826679448094734</v>
+      </c>
+      <c r="H81">
+        <v>-0.08013095465747798</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.0504852218257985</v>
+        <v>-0.03412590436855094</v>
       </c>
       <c r="C83">
-        <v>-0.003842444308363599</v>
+        <v>0.006428425594405283</v>
       </c>
       <c r="D83">
-        <v>0.03560424691140682</v>
+        <v>-0.01902762715994776</v>
       </c>
       <c r="E83">
-        <v>0.01445477088684283</v>
+        <v>-0.005595364737361547</v>
       </c>
       <c r="F83">
-        <v>-0.05813941676683677</v>
+        <v>0.001761184687048621</v>
       </c>
       <c r="G83">
-        <v>-0.03524705149482398</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04355435804613737</v>
+      </c>
+      <c r="H83">
+        <v>0.04268166490595087</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2528711722487237</v>
+        <v>-0.2169300820457065</v>
       </c>
       <c r="C85">
-        <v>0.1306029354238293</v>
+        <v>0.08776840523595789</v>
       </c>
       <c r="D85">
-        <v>-0.04309245697935084</v>
+        <v>-0.1601070968573123</v>
       </c>
       <c r="E85">
-        <v>0.06331567730715477</v>
+        <v>0.006047258343350213</v>
       </c>
       <c r="F85">
-        <v>0.1414203342135403</v>
+        <v>0.1346753267588023</v>
       </c>
       <c r="G85">
-        <v>-0.04508102302793895</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1377010006122876</v>
+      </c>
+      <c r="H85">
+        <v>-0.09151685195738497</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.004830928512657115</v>
+        <v>-0.02233897602856222</v>
       </c>
       <c r="C86">
-        <v>-0.004364752900518638</v>
+        <v>-0.0001214174596457421</v>
       </c>
       <c r="D86">
-        <v>0.01855343085894929</v>
+        <v>-0.004036739126497798</v>
       </c>
       <c r="E86">
-        <v>0.05714202533982444</v>
+        <v>-0.009384310074447845</v>
       </c>
       <c r="F86">
-        <v>-0.05820801212088945</v>
+        <v>-0.01864515917055866</v>
       </c>
       <c r="G86">
-        <v>-0.007494601090204552</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.0636975932124715</v>
+      </c>
+      <c r="H86">
+        <v>0.07726066854936825</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03700382711988751</v>
+        <v>-0.02947151234709832</v>
       </c>
       <c r="C87">
-        <v>-0.006198546012044585</v>
+        <v>0.003329142342717117</v>
       </c>
       <c r="D87">
-        <v>0.001677125560007165</v>
+        <v>-0.02961882202438802</v>
       </c>
       <c r="E87">
-        <v>0.0462161737448607</v>
+        <v>0.006325152471508911</v>
       </c>
       <c r="F87">
-        <v>-0.1026652415483817</v>
+        <v>0.004292575509302374</v>
       </c>
       <c r="G87">
-        <v>-0.04927156368887632</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.08084254655115644</v>
+      </c>
+      <c r="H87">
+        <v>0.06888219631710465</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0102073117209241</v>
+        <v>-0.03827697591116015</v>
       </c>
       <c r="C88">
-        <v>0.003790346111209661</v>
+        <v>-0.01018615685879378</v>
       </c>
       <c r="D88">
-        <v>-0.01824071808071922</v>
+        <v>-0.00499809212617136</v>
       </c>
       <c r="E88">
-        <v>-0.002769826879017747</v>
+        <v>0.009295611730868144</v>
       </c>
       <c r="F88">
-        <v>-0.01198361743304854</v>
+        <v>0.01107872664843587</v>
       </c>
       <c r="G88">
-        <v>-0.05163903239084778</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.005231942338639943</v>
+      </c>
+      <c r="H88">
+        <v>0.01029876584716367</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08780179251838244</v>
+        <v>-0.2397706321374197</v>
       </c>
       <c r="C89">
-        <v>-0.04741667530274617</v>
+        <v>0.03548547918483089</v>
       </c>
       <c r="D89">
-        <v>-0.1650736862217696</v>
+        <v>0.3541494202973244</v>
       </c>
       <c r="E89">
-        <v>-0.2559796760256958</v>
+        <v>-0.04712012023647889</v>
       </c>
       <c r="F89">
-        <v>-0.1315487104520554</v>
+        <v>-0.06506430894652314</v>
       </c>
       <c r="G89">
-        <v>0.0072649664831559</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.0321837561536348</v>
+      </c>
+      <c r="H89">
+        <v>-0.01672747439045776</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07660195000061426</v>
+        <v>-0.1929898109462982</v>
       </c>
       <c r="C90">
-        <v>-0.07194328864198367</v>
+        <v>0.02872210018916464</v>
       </c>
       <c r="D90">
-        <v>-0.2129803897191763</v>
+        <v>0.3100471390511751</v>
       </c>
       <c r="E90">
-        <v>-0.2587911005481126</v>
+        <v>-0.03611619039598458</v>
       </c>
       <c r="F90">
-        <v>-0.09336267877714026</v>
+        <v>-0.07960331489898788</v>
       </c>
       <c r="G90">
-        <v>0.01074514694172288</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.03610707843547381</v>
+      </c>
+      <c r="H90">
+        <v>-0.06632058506516403</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.3080891916986963</v>
+        <v>-0.2357548095260802</v>
       </c>
       <c r="C91">
-        <v>0.1434389568784927</v>
+        <v>0.1054823922786088</v>
       </c>
       <c r="D91">
-        <v>-0.03789153238748462</v>
+        <v>-0.1474855498499998</v>
       </c>
       <c r="E91">
-        <v>0.02666891563231984</v>
+        <v>0.004365520220714725</v>
       </c>
       <c r="F91">
-        <v>0.237097323502553</v>
+        <v>0.1416150497935453</v>
       </c>
       <c r="G91">
-        <v>0.03178881689075035</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1463892539138743</v>
+      </c>
+      <c r="H91">
+        <v>-0.1656273548965544</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1658395926083941</v>
+        <v>-0.2369487503155006</v>
       </c>
       <c r="C92">
-        <v>-0.02235446417719061</v>
+        <v>0.09114898558901258</v>
       </c>
       <c r="D92">
-        <v>-0.2944340892479616</v>
+        <v>0.2414534844847094</v>
       </c>
       <c r="E92">
-        <v>-0.3589114160900257</v>
+        <v>-0.02079969061196233</v>
       </c>
       <c r="F92">
-        <v>0.04485571814247346</v>
+        <v>-0.03366211321631826</v>
       </c>
       <c r="G92">
-        <v>-0.614419198919569</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.004432747961410652</v>
+      </c>
+      <c r="H92">
+        <v>-0.1555031875283741</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.08210275701786167</v>
+        <v>-0.2171938431283555</v>
       </c>
       <c r="C93">
-        <v>-0.07527214849909175</v>
+        <v>0.04094992249060483</v>
       </c>
       <c r="D93">
-        <v>-0.2458063546082935</v>
+        <v>0.3344328155248855</v>
       </c>
       <c r="E93">
-        <v>-0.3837408960631272</v>
+        <v>-0.06063734115682465</v>
       </c>
       <c r="F93">
-        <v>-0.06377028750685995</v>
+        <v>-0.08864772060631408</v>
       </c>
       <c r="G93">
-        <v>0.09063564032369886</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03642209302461847</v>
+      </c>
+      <c r="H93">
+        <v>-0.01762198705933767</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3043252076863267</v>
+        <v>-0.2628498591627355</v>
       </c>
       <c r="C94">
-        <v>0.212917978283148</v>
+        <v>0.09773192704831098</v>
       </c>
       <c r="D94">
-        <v>-0.08380889757421853</v>
+        <v>-0.1430459521373619</v>
       </c>
       <c r="E94">
-        <v>0.04140514382191855</v>
+        <v>-0.004589953712168153</v>
       </c>
       <c r="F94">
-        <v>0.2136461774424045</v>
+        <v>0.1900785834084345</v>
       </c>
       <c r="G94">
-        <v>0.078534541770844</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1397672575909795</v>
+      </c>
+      <c r="H94">
+        <v>-0.1852451390707426</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07351983195914584</v>
+        <v>-0.05504201482742542</v>
       </c>
       <c r="C95">
-        <v>0.02581127632907344</v>
+        <v>0.02995201658590549</v>
       </c>
       <c r="D95">
-        <v>0.09796777346884077</v>
+        <v>-0.08661119779801804</v>
       </c>
       <c r="E95">
-        <v>0.06975530012716816</v>
+        <v>-0.08000557079980579</v>
       </c>
       <c r="F95">
-        <v>0.007887538049137862</v>
+        <v>0.007534339766454364</v>
       </c>
       <c r="G95">
-        <v>-0.1422468702968044</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.03282887003614163</v>
+      </c>
+      <c r="H95">
+        <v>0.04156570270796971</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1807033634235496</v>
+        <v>-0.1816598281218745</v>
       </c>
       <c r="C98">
-        <v>-0.005860863142125761</v>
+        <v>0.06948503506517836</v>
       </c>
       <c r="D98">
-        <v>0.02568759609145441</v>
+        <v>-0.03141412768423175</v>
       </c>
       <c r="E98">
-        <v>-0.08070952971294552</v>
+        <v>-0.04450235542326313</v>
       </c>
       <c r="F98">
-        <v>-0.1555310720587142</v>
+        <v>0.001996563300209804</v>
       </c>
       <c r="G98">
-        <v>0.3111809800868824</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.07562601023577395</v>
+      </c>
+      <c r="H98">
+        <v>0.3767424884404184</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.007430219380983917</v>
+        <v>-0.0151586740972763</v>
       </c>
       <c r="C101">
-        <v>0.02383993865849995</v>
+        <v>-0.0006660257053709096</v>
       </c>
       <c r="D101">
-        <v>0.02306601912916498</v>
+        <v>-0.005656801087591561</v>
       </c>
       <c r="E101">
-        <v>0.1136357228629711</v>
+        <v>0.00577801087707067</v>
       </c>
       <c r="F101">
-        <v>-0.1416552908752312</v>
+        <v>0.01634145323997994</v>
       </c>
       <c r="G101">
-        <v>-0.1711364775103588</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1111757768336001</v>
+      </c>
+      <c r="H101">
+        <v>-0.03063012020001711</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1077499030959787</v>
+        <v>-0.1055746633076409</v>
       </c>
       <c r="C102">
-        <v>0.0669688952078397</v>
+        <v>0.03544082344986983</v>
       </c>
       <c r="D102">
-        <v>0.001367333280904769</v>
+        <v>-0.07800931085131954</v>
       </c>
       <c r="E102">
-        <v>0.04287430166849376</v>
+        <v>0.006451163419034735</v>
       </c>
       <c r="F102">
-        <v>0.1215831591912744</v>
+        <v>0.0691628372893355</v>
       </c>
       <c r="G102">
-        <v>0.002419778416726585</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.07862849551838499</v>
+      </c>
+      <c r="H102">
+        <v>-0.07113392583461402</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02756860034905835</v>
+        <v>-0.0197455457539068</v>
       </c>
       <c r="C103">
-        <v>0.01465765960275244</v>
+        <v>0.007641899666834932</v>
       </c>
       <c r="D103">
-        <v>-0.00226746977799692</v>
+        <v>-0.01633674283208794</v>
       </c>
       <c r="E103">
-        <v>0.01422819979697873</v>
+        <v>0.01145094421376786</v>
       </c>
       <c r="F103">
-        <v>0.008671583447288534</v>
+        <v>0.01364412273643382</v>
       </c>
       <c r="G103">
-        <v>-0.03041532669226622</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.0008800763706584961</v>
+      </c>
+      <c r="H103">
+        <v>-0.008216611444836644</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.270630775947779</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9455383299690935</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.01761383820870021</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.03721393428712529</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1444812768676196</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.0117783687090578</v>
+      </c>
+      <c r="H104">
+        <v>-0.03834343451019018</v>
       </c>
     </row>
   </sheetData>
